--- a/data/radar_DoE_RSM.xlsx
+++ b/data/radar_DoE_RSM.xlsx
@@ -58,7 +58,7 @@
     <t>N/P*PEI MW</t>
   </si>
   <si>
-    <t>NA Dose* N/P</t>
+    <t>NA Dose*N/P</t>
   </si>
 </sst>
 </file>
